--- a/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan_OnlyEpiks.xlsx
+++ b/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan_OnlyEpiks.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Overview Sprint 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Overview Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Index" sheetId="6" r:id="rId1"/>
+    <sheet name="Overview" sheetId="4" r:id="rId2"/>
+    <sheet name="Overview Sprint 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Overview Sprint 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Overview Sprint 3" sheetId="3" r:id="rId5"/>
+    <sheet name="Overview Sprint 4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t xml:space="preserve">SP001 </t>
   </si>
@@ -105,12 +108,46 @@
     <t>Detailansicht
 der User Stories</t>
   </si>
+  <si>
+    <t>Scrumiverse
+Software &amp; Projektplan</t>
+  </si>
+  <si>
+    <t>SP003</t>
+  </si>
+  <si>
+    <t>SP004</t>
+  </si>
+  <si>
+    <t>Finalisierung der Website</t>
+  </si>
+  <si>
+    <t>Präsentation und Dokumentation</t>
+  </si>
+  <si>
+    <t>Präsentation &amp; Dokumentation</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>SPXXX</t>
+  </si>
+  <si>
+    <t>USXXX</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +173,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,6 +296,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -258,25 +332,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>312271</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>283002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="622300"/>
-          <a:ext cx="0" cy="2178050"/>
+      <xdr:colOff>312271</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312271" y="486202"/>
+          <a:ext cx="0" cy="3653998"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -301,114 +375,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>230323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Gerade Verbindung 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3051175" y="1144723"/>
-          <a:ext cx="0" cy="1649277"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>384849</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>230909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>448990</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>230910</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Gerade Verbindung 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="384849" y="1154545"/>
-          <a:ext cx="2668282" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>378092</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>203588</xdr:rowOff>
+      <xdr:colOff>322063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9694</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>203588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="378092" y="2792061"/>
-          <a:ext cx="455648" cy="0"/>
+      <xdr:colOff>1925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322063" y="2289990"/>
+          <a:ext cx="454562" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -437,25 +423,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>375372</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>288123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6974</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>288123</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="375372" y="1965299"/>
-          <a:ext cx="455648" cy="0"/>
+      <xdr:colOff>319343</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>773905</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319343" y="1383925"/>
+          <a:ext cx="454562" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -483,26 +469,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>449299</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>271448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3344</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>271448</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3052799" y="1947848"/>
-          <a:ext cx="379545" cy="0"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>764903</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerade Verbindung 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="482600"/>
+          <a:ext cx="460103" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322063</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>270690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>270690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322063" y="3217090"/>
+          <a:ext cx="454562" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -530,26 +560,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200873</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>821330</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200873</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3051175" y="2791673"/>
-          <a:ext cx="373655" cy="0"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>270690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>270690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322063" y="4131490"/>
+          <a:ext cx="454562" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -557,50 +587,6 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>373529</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>212298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10672</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>212298</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Gerade Verbindung 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="373529" y="618698"/>
-          <a:ext cx="462643" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -627,25 +613,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>388471</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219502</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>388471</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Gerade Verbindung 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="388471" y="625902"/>
-          <a:ext cx="0" cy="4022298"/>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="622300"/>
+          <a:ext cx="0" cy="2178050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -671,25 +657,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>221225</xdr:rowOff>
+      <xdr:rowOff>230323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3056106" y="1148325"/>
-          <a:ext cx="0" cy="3474475"/>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3051175" y="1144723"/>
+          <a:ext cx="0" cy="1649277"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -715,25 +701,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>392320</xdr:colOff>
+      <xdr:colOff>384849</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>221812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>448990</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>221813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerade Verbindung 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="392320" y="1148912"/>
-          <a:ext cx="5271880" cy="1"/>
+          <a:off x="384849" y="1154545"/>
+          <a:ext cx="2668282" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -759,25 +745,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>385563</xdr:colOff>
+      <xdr:colOff>378092</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>219890</xdr:rowOff>
+      <xdr:rowOff>203588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>14625</xdr:colOff>
+      <xdr:colOff>9694</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>219890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="385563" y="2797990"/>
-          <a:ext cx="454562" cy="0"/>
+      <xdr:rowOff>203588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="378092" y="2792061"/>
+          <a:ext cx="455648" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -806,25 +792,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>382843</xdr:colOff>
+      <xdr:colOff>375372</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>317125</xdr:rowOff>
+      <xdr:rowOff>288123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
+      <xdr:colOff>6974</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>317125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="382843" y="1968125"/>
-          <a:ext cx="454562" cy="0"/>
+      <xdr:rowOff>288123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375372" y="1965299"/>
+          <a:ext cx="455648" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -853,25 +839,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>454230</xdr:colOff>
+      <xdr:colOff>449299</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>300450</xdr:rowOff>
+      <xdr:rowOff>271448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5735</xdr:colOff>
+      <xdr:colOff>3344</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>300450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057730" y="1951450"/>
-          <a:ext cx="377005" cy="0"/>
+      <xdr:rowOff>271448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3052799" y="1947848"/>
+          <a:ext cx="379545" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -900,24 +886,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>217175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761</xdr:colOff>
+      <xdr:rowOff>200873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>821330</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>217175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3056106" y="2795275"/>
+      <xdr:rowOff>200873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3051175" y="2791673"/>
           <a:ext cx="373655" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -947,449 +933,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>373529</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>212298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15603</xdr:colOff>
+      <xdr:colOff>10672</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerade Verbindung 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="622300"/>
-          <a:ext cx="460103" cy="0"/>
+      <xdr:rowOff>212298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Gerade Verbindung 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373529" y="618698"/>
+          <a:ext cx="462643" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>454230</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>262350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5735</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>262350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057730" y="3767550"/>
-          <a:ext cx="377005" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3056106" y="4611375"/>
-          <a:ext cx="373655" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>398263</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>27325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="398263" y="4652190"/>
-          <a:ext cx="454562" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>395543</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>317125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>24605</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>317125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="395543" y="3822325"/>
-          <a:ext cx="454562" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>221225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gerade Verbindung 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5659606" y="1148325"/>
-          <a:ext cx="0" cy="3474475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>454230</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>300450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5735</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>300450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5661230" y="1951450"/>
-          <a:ext cx="377005" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>217175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>217175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5659606" y="2795275"/>
-          <a:ext cx="373655" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>454230</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>262350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5735</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>262350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5661230" y="3767550"/>
-          <a:ext cx="377005" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452606</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Gerade Verbindung mit Pfeil 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5659606" y="4611375"/>
-          <a:ext cx="373655" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1416,6 +982,795 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>388471</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388471</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388471" y="625902"/>
+          <a:ext cx="0" cy="4022298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056106" y="1148325"/>
+          <a:ext cx="0" cy="3474475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="392320" y="1148912"/>
+          <a:ext cx="5271880" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>385563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="385563" y="2797990"/>
+          <a:ext cx="454562" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>382843</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>317125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>317125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="382843" y="1968125"/>
+          <a:ext cx="454562" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>454230</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>300450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5735</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>300450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057730" y="1951450"/>
+          <a:ext cx="377005" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056106" y="2795275"/>
+          <a:ext cx="373655" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15603</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="622300"/>
+          <a:ext cx="460103" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>454230</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>262350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5735</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>262350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057730" y="3767550"/>
+          <a:ext cx="377005" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056106" y="4611375"/>
+          <a:ext cx="373655" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398263</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398263" y="4652190"/>
+          <a:ext cx="454562" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395543</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>317125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24605</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>317125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="395543" y="3822325"/>
+          <a:ext cx="454562" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gerade Verbindung 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5659606" y="1148325"/>
+          <a:ext cx="0" cy="3474475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454230</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>300450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5735</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>300450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5661230" y="1951450"/>
+          <a:ext cx="377005" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5659606" y="2795275"/>
+          <a:ext cx="373655" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454230</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>262350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5735</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>262350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5661230" y="3767550"/>
+          <a:ext cx="377005" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452606</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Gerade Verbindung mit Pfeil 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5659606" y="4611375"/>
+          <a:ext cx="373655" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>363071</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>257602</xdr:rowOff>
@@ -1975,8 +2330,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>415661</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75045</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1986,7 +2341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5622661" y="1185270"/>
-          <a:ext cx="0" cy="3461775"/>
+          <a:ext cx="0" cy="2624730"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2150,28 +2505,165 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>415661</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>786429</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5622661" y="4635620"/>
-          <a:ext cx="370768" cy="0"/>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="622300"/>
+          <a:ext cx="0" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3051175" y="1144723"/>
+          <a:ext cx="0" cy="1649277"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384849</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>448990</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="384849" y="1145309"/>
+          <a:ext cx="2667641" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>378092</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9694</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="378092" y="2794388"/>
+          <a:ext cx="457102" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2179,6 +2671,191 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375372</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>288123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6974</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>288123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375372" y="1964523"/>
+          <a:ext cx="457102" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>271448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3344</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>271448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3052799" y="1947848"/>
+          <a:ext cx="379545" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>821330</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3051175" y="2791673"/>
+          <a:ext cx="373655" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>212298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10672</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>212298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373529" y="618698"/>
+          <a:ext cx="462643" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2463,10 +3140,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'Overview Sprint 1'!A1" display="Dokumentation &amp; Prototyp"/>
+    <hyperlink ref="B8" location="'Overview Sprint 2'!A1" display="Kern Implementation"/>
+    <hyperlink ref="B11" location="'Overview Sprint 3'!A1" display="Finalisierung der Website"/>
+    <hyperlink ref="B14" location="'Overview Sprint 4'!A1" display="Präsentation &amp; Dokumentation"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,7 +4028,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
+    <hyperlink ref="B3" location="Overview!A1" display="Dokumentation &amp; Prototyp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2781,12 +4036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3047,15 +4302,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3077,7 +4337,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
@@ -3087,7 +4347,7 @@
     <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3305,5 +4565,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Overview!A1" display="Präsentation und Dokumentation"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>